--- a/Data/flights.xlsx
+++ b/Data/flights.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\pycharmworkouts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C924660B-B10E-49F9-AC19-0093C7CE58F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B4EA34-D961-47F3-AF8D-70F1B64CFF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF0A7362-9840-482F-9AA0-59985615FE9B}"/>
   </bookViews>
@@ -4325,13 +4325,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3442FB-E446-4CBD-B3EC-160A7B5EBF0E}">
   <dimension ref="A1:Z325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
